--- a/仕様書/進捗管理_200708.xlsx
+++ b/仕様書/進捗管理_200708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/663c7097584f3ccd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CD395FFB-8DAB-452C-B935-ABD3F6656377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{48279FD2-72AC-4DDC-B360-4158577A7D89}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{CD395FFB-8DAB-452C-B935-ABD3F6656377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{734245EA-8736-488E-95F5-065FF767AD20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,25 @@
     <sheet name="日報200707" sheetId="3" r:id="rId3"/>
     <sheet name="日報200708" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="100">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -834,6 +842,46 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一段階進行中</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二段階進行中</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,8 +943,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1324,11 +1384,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1420,74 +1491,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1770,18 +1873,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="9" style="41"/>
-    <col min="10" max="10" width="7.3984375" customWidth="1"/>
-    <col min="11" max="22" width="6.09765625" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="22" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1819,19 +1922,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1">
+    <row r="12" spans="1:22" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18.600000000000001" thickBot="1">
+    <row r="13" spans="1:22" ht="19.5" thickBot="1">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1891,10 +1994,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
@@ -1928,10 +2031,10 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1965,10 +2068,10 @@
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
@@ -2002,10 +2105,10 @@
       <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
@@ -2039,10 +2142,10 @@
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
@@ -2076,10 +2179,10 @@
       <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
@@ -2113,10 +2216,10 @@
       <c r="B20" s="8">
         <v>7</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="18" t="s">
         <v>26</v>
       </c>
@@ -2150,22 +2253,22 @@
       <c r="B21" s="8">
         <v>8</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H21" s="22">
         <v>44021</v>
       </c>
       <c r="I21" s="46">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="10"/>
@@ -2175,8 +2278,8 @@
       <c r="O21" s="13"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="35"/>
@@ -2185,10 +2288,10 @@
       <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
@@ -2220,10 +2323,10 @@
       <c r="B23" s="8">
         <v>10</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
@@ -2292,10 +2395,10 @@
       <c r="B25" s="8">
         <v>12</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="26" t="s">
         <v>23</v>
       </c>
@@ -2364,10 +2467,10 @@
       <c r="B27" s="8">
         <v>14</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="20" t="s">
         <v>25</v>
       </c>
@@ -2401,10 +2504,10 @@
       <c r="B28" s="8">
         <v>15</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="20" t="s">
         <v>67</v>
       </c>
@@ -2436,10 +2539,10 @@
       <c r="B29" s="8">
         <v>16</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="20" t="s">
         <v>22</v>
       </c>
@@ -2468,20 +2571,34 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="8"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="8">
+        <v>17</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="77">
+        <v>44021</v>
+      </c>
+      <c r="I30" s="46">
+        <v>44022</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="1"/>
@@ -2492,8 +2609,8 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="8"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="20"/>
@@ -2515,8 +2632,8 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="8"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="20"/>
@@ -2536,10 +2653,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="35"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:25">
       <c r="B33" s="8"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="20"/>
@@ -2559,10 +2676,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="35"/>
     </row>
-    <row r="34" spans="1:22" ht="18.600000000000001" thickBot="1">
+    <row r="34" spans="1:25" ht="19.5" thickBot="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="42"/>
@@ -2582,19 +2699,19 @@
       <c r="U34" s="3"/>
       <c r="V34" s="37"/>
     </row>
-    <row r="37" spans="1:22" ht="18.600000000000001" thickBot="1">
+    <row r="37" spans="1:25" ht="19.5" thickBot="1">
       <c r="A37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="18.600000000000001" thickBot="1">
+    <row r="38" spans="1:25" ht="19.5" thickBot="1">
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="6" t="s">
         <v>9</v>
       </c>
@@ -2650,14 +2767,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:25">
       <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="71"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="17" t="s">
         <v>22</v>
       </c>
@@ -2674,10 +2791,10 @@
       <c r="J39" s="15">
         <v>100</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="78">
         <v>1</v>
       </c>
-      <c r="L39" s="63"/>
+      <c r="L39" s="79"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2689,14 +2806,14 @@
       <c r="U39" s="4"/>
       <c r="V39" s="34"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:25">
       <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="57"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="18" t="s">
         <v>22</v>
       </c>
@@ -2713,11 +2830,11 @@
       <c r="J40" s="16">
         <v>80</v>
       </c>
-      <c r="K40" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="1"/>
+      <c r="K40" s="80">
+        <v>1</v>
+      </c>
+      <c r="L40" s="81"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
@@ -2728,14 +2845,14 @@
       <c r="U40" s="1"/>
       <c r="V40" s="35"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:25">
       <c r="B41" s="8">
         <v>3</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
@@ -2752,11 +2869,11 @@
       <c r="J41" s="50">
         <v>100</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="83">
         <v>1</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
@@ -2767,14 +2884,14 @@
       <c r="U41" s="1"/>
       <c r="V41" s="35"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:25">
       <c r="B42" s="8">
         <v>4</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="18" t="s">
         <v>24</v>
       </c>
@@ -2791,11 +2908,11 @@
       <c r="J42" s="16">
         <v>100</v>
       </c>
-      <c r="K42" s="60">
+      <c r="K42" s="80">
         <v>1</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="54"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="53"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
@@ -2805,15 +2922,19 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="35"/>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="X42" s="87"/>
+      <c r="Y42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="B43" s="8">
         <v>5</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="57"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="18" t="s">
         <v>25</v>
       </c>
@@ -2830,13 +2951,13 @@
       <c r="J43" s="16">
         <v>100</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="83">
         <v>1</v>
       </c>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="1"/>
@@ -2845,14 +2966,14 @@
       <c r="U43" s="1"/>
       <c r="V43" s="35"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:25">
       <c r="B44" s="8">
         <v>6</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="57"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="18" t="s">
         <v>22</v>
       </c>
@@ -2869,13 +2990,13 @@
       <c r="J44" s="16">
         <v>100</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="83">
         <v>1</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="1"/>
@@ -2883,15 +3004,19 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="35"/>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="X44" s="88"/>
+      <c r="Y44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="B45" s="8">
         <v>7</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="18" t="s">
         <v>26</v>
       </c>
@@ -2908,13 +3033,13 @@
       <c r="J45" s="16">
         <v>100</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="83">
         <v>1</v>
       </c>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="1"/>
@@ -2923,14 +3048,14 @@
       <c r="U45" s="1"/>
       <c r="V45" s="35"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:25">
       <c r="B46" s="8">
         <v>8</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="18" t="s">
         <v>26</v>
       </c>
@@ -2944,12 +3069,16 @@
       <c r="I46" s="46">
         <v>44022</v>
       </c>
-      <c r="J46" s="16"/>
+      <c r="J46" s="16">
+        <v>20</v>
+      </c>
       <c r="K46" s="10"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="76">
+        <v>0.3</v>
+      </c>
+      <c r="N46" s="75"/>
+      <c r="O46" s="53"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="1"/>
@@ -2957,15 +3086,19 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="35"/>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="X46" s="89"/>
+      <c r="Y46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="B47" s="8">
         <v>9</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="18" t="s">
         <v>26</v>
       </c>
@@ -2981,26 +3114,28 @@
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="O47" s="53"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
       <c r="V47" s="35"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:25">
       <c r="B48" s="8">
         <v>10</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="18" t="s">
         <v>24</v>
       </c>
@@ -3015,21 +3150,21 @@
         <v>44022</v>
       </c>
       <c r="J48" s="16">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K48" s="10"/>
-      <c r="L48" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
+      <c r="L48" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="M48" s="74"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="53"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
       <c r="V48" s="35"/>
     </row>
     <row r="49" spans="2:22">
@@ -3053,28 +3188,32 @@
       <c r="I49" s="46">
         <v>44026</v>
       </c>
-      <c r="J49" s="29"/>
+      <c r="J49" s="29">
+        <v>50</v>
+      </c>
       <c r="K49" s="30"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
+      <c r="N49" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="O49" s="54"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
       <c r="V49" s="36"/>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="8">
         <v>12</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
         <v>23</v>
       </c>
@@ -3089,21 +3228,21 @@
         <v>44022</v>
       </c>
       <c r="J50" s="29">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K50" s="30"/>
-      <c r="L50" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="M50" s="31"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
+      <c r="L50" s="85">
+        <v>1</v>
+      </c>
+      <c r="M50" s="81"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="54"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
       <c r="V50" s="36"/>
     </row>
     <row r="51" spans="2:22">
@@ -3127,28 +3266,32 @@
       <c r="I51" s="46">
         <v>44026</v>
       </c>
-      <c r="J51" s="29"/>
+      <c r="J51" s="29">
+        <v>50</v>
+      </c>
       <c r="K51" s="30"/>
       <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
+      <c r="M51" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="N51" s="75"/>
+      <c r="O51" s="54"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
       <c r="V51" s="36"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="8">
         <v>14</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="57"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="20" t="s">
         <v>25</v>
       </c>
@@ -3163,31 +3306,31 @@
         <v>44026</v>
       </c>
       <c r="J52" s="8">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K52" s="10"/>
-      <c r="L52" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
+      <c r="L52" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="M52" s="91"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="53"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
       <c r="V52" s="35"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="8">
         <v>15</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="57"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="20" t="s">
         <v>67</v>
       </c>
@@ -3205,24 +3348,26 @@
       <c r="K53" s="10"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
+      <c r="N53" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="O53" s="53"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
       <c r="V53" s="35"/>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="8">
         <v>16</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="57"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="20" t="s">
         <v>22</v>
       </c>
@@ -3244,39 +3389,54 @@
       <c r="O54" s="1"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
       <c r="V54" s="35"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="8"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="8"/>
+      <c r="B55" s="8">
+        <v>17</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="8"/>
+      <c r="G55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="22">
+        <v>44021</v>
+      </c>
+      <c r="I55" s="46">
+        <v>44022</v>
+      </c>
+      <c r="J55" s="8">
+        <v>100</v>
+      </c>
       <c r="K55" s="10"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="N55" s="86">
+        <v>1</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
       <c r="V55" s="35"/>
     </row>
     <row r="56" spans="2:22">
       <c r="B56" s="8"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="20"/>
@@ -3298,8 +3458,8 @@
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="8"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="20"/>
@@ -3321,8 +3481,8 @@
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="8"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="20"/>
@@ -3342,10 +3502,10 @@
       <c r="U58" s="1"/>
       <c r="V58" s="35"/>
     </row>
-    <row r="59" spans="2:22" ht="18.600000000000001" thickBot="1">
+    <row r="59" spans="2:22" ht="19.5" thickBot="1">
       <c r="B59" s="9"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="42"/>
@@ -3366,7 +3526,46 @@
       <c r="V59" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
@@ -3380,40 +3579,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3429,7 +3594,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="23"/>
   </cols>
@@ -3475,64 +3640,64 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="24">
         <v>1</v>
       </c>
@@ -3543,40 +3708,40 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="70"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="70"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="70"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="70"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="70"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="25"/>
@@ -3646,7 +3811,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="23"/>
   </cols>
@@ -3692,62 +3857,62 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="24">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="24">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="24">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="24"/>
     </row>
     <row r="24" spans="1:3">
@@ -3756,34 +3921,34 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="70"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="70"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="70"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="70"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="38"/>
@@ -3826,18 +3991,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3849,224 +4014,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B72F7-C7D2-4C43-8DE4-F5E55BCE41FA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="73"/>
+    <col min="1" max="1" width="8.75" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="73"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="E15" s="78" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="E15" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="E16" s="78" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="E16" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="78"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="E17" s="78" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="E17" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="E18" s="78" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="E18" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="E19" s="78" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="E19" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="E20" s="78" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="E20" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="71"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="E21" s="78" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="E21" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="71"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="57" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="57" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="74"/>
+      <c r="A30" s="56"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="55" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="55" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="55" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -4075,9 +4243,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
